--- a/Test Data/Verify DC Units Calculation on changing base of device to sounder base.xlsx
+++ b/Test Data/Verify DC Units Calculation on changing base of device to sounder base.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\Share code - Shweta\NGConsys Automation_25_02_2019\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D55571-0CB6-4145-9C00-A6B7087E91C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
     <sheet name="Add Sounder Base Device" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -154,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -602,11 +601,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,7 +853,7 @@
         <v>29</v>
       </c>
       <c r="J10" s="10">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K10" s="4">
         <v>0.4</v>
@@ -879,7 +878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/Verify DC Units Calculation on changing base of device to sounder base.xlsx
+++ b/Test Data/Verify DC Units Calculation on changing base of device to sounder base.xlsx
@@ -30,8 +30,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alpesh Dhakad</author>
+  </authors>
+  <commentList>
+    <comment ref="I10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+4BI 4" [517.050.043] &amp; 801RIL</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>Device</t>
   </si>
@@ -120,9 +154,6 @@
     <t>Expected value</t>
   </si>
   <si>
-    <t>4BI 4" [517.050.043] &amp; 801RIL</t>
-  </si>
-  <si>
     <t>MCP 820 - 1</t>
   </si>
   <si>
@@ -148,13 +179,16 @@
   </si>
   <si>
     <t>Row Index</t>
+  </si>
+  <si>
+    <t>Assign Base/Default Base row number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +210,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -601,11 +648,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,7 +685,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>13</v>
@@ -653,7 +700,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="15" t="s">
@@ -667,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="15" t="s">
@@ -718,10 +765,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>3</v>
@@ -744,7 +791,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>10</v>
@@ -832,7 +879,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>10</v>
@@ -849,8 +896,8 @@
       <c r="H10" s="12">
         <v>1</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>29</v>
+      <c r="I10" s="10">
+        <v>14</v>
       </c>
       <c r="J10" s="10">
         <v>6</v>
@@ -874,6 +921,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1014,13 +1062,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>10</v>

--- a/Test Data/Verify DC Units Calculation on changing base of device to sounder base.xlsx
+++ b/Test Data/Verify DC Units Calculation on changing base of device to sounder base.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A47D347-F5C3-408B-95F5-412B3C8C2107}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
     <sheet name="Add Sounder Base Device" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alpesh Dhakad</author>
   </authors>
   <commentList>
-    <comment ref="I10" authorId="0" shapeId="0">
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>Device</t>
   </si>
@@ -175,19 +178,37 @@
     <t>Verify DCCalculation On ChangingBase</t>
   </si>
   <si>
-    <t>NGC-1191</t>
-  </si>
-  <si>
     <t>Row Index</t>
   </si>
   <si>
     <t>Assign Base/Default Base row number</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Built-in Loop-A</t>
+  </si>
+  <si>
+    <t>Built-in Loop-B</t>
+  </si>
+  <si>
+    <t>Built-in Loop-C</t>
+  </si>
+  <si>
+    <t>Built-in Loop-D</t>
+  </si>
+  <si>
+    <t>NGC-494/T412 OR TC-161</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -317,11 +338,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -369,6 +403,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,11 +683,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,6 +714,12 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
+      <c r="F1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -691,6 +732,12 @@
         <v>13</v>
       </c>
       <c r="D2" s="17"/>
+      <c r="F2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="16">
+        <v>2</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="9"/>
@@ -706,6 +753,9 @@
       <c r="D3" s="15" t="s">
         <v>25</v>
       </c>
+      <c r="F3" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -713,12 +763,15 @@
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>36</v>
+      <c r="B4" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="15" t="s">
         <v>27</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -727,6 +780,9 @@
       <c r="C5" s="5"/>
       <c r="D5" s="15" t="s">
         <v>28</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -765,10 +821,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>3</v>
@@ -926,11 +982,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,6 +1014,12 @@
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
+      <c r="F1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -969,6 +1031,12 @@
         <v>13</v>
       </c>
       <c r="D2" s="19"/>
+      <c r="F2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="16">
+        <v>2</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="9"/>
@@ -982,6 +1050,9 @@
       <c r="D3" s="15" t="s">
         <v>25</v>
       </c>
+      <c r="F3" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="3"/>
@@ -990,10 +1061,15 @@
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="15" t="s">
         <v>27</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1003,6 +1079,9 @@
       <c r="C5" s="5"/>
       <c r="D5" s="15" t="s">
         <v>28</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
